--- a/Game List.xlsx
+++ b/Game List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Жанры</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Стоимость</t>
   </si>
   <si>
-    <t>Минимальные сис. требования</t>
-  </si>
-  <si>
-    <t>Рекомендуемые сис. требования</t>
-  </si>
-  <si>
     <t>Origin и Steam</t>
   </si>
   <si>
@@ -52,18 +46,50 @@
   </si>
   <si>
     <t>Королевская битва</t>
+  </si>
+  <si>
+    <t>М.с.т. Процессор</t>
+  </si>
+  <si>
+    <t>М.с.т. ОС</t>
+  </si>
+  <si>
+    <t>М.с.т. ОЗУ</t>
+  </si>
+  <si>
+    <t>М.с.т. Видеокарта</t>
+  </si>
+  <si>
+    <t>М.с.т. Память видеокарты</t>
+  </si>
+  <si>
+    <t>М.с.т. Жесткий диск</t>
+  </si>
+  <si>
+    <t>64-разрядная версия Windiws 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четырехъядерный процессор Intel Core i3-6300 3,8 ГГц </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,18 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -415,24 +442,42 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Game List.xlsx
+++ b/Game List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Жанры</t>
   </si>
@@ -45,43 +45,168 @@
     <t>Apex Legends</t>
   </si>
   <si>
-    <t>Королевская битва</t>
-  </si>
-  <si>
-    <t>М.с.т. Процессор</t>
-  </si>
-  <si>
-    <t>М.с.т. ОС</t>
-  </si>
-  <si>
-    <t>М.с.т. ОЗУ</t>
-  </si>
-  <si>
-    <t>М.с.т. Видеокарта</t>
-  </si>
-  <si>
-    <t>М.с.т. Память видеокарты</t>
-  </si>
-  <si>
-    <t>М.с.т. Жесткий диск</t>
-  </si>
-  <si>
     <t>64-разрядная версия Windiws 7</t>
   </si>
   <si>
     <t xml:space="preserve">Четырехъядерный процессор Intel Core i3-6300 3,8 ГГц </t>
+  </si>
+  <si>
+    <t>6 ГБ</t>
+  </si>
+  <si>
+    <t>1 ГБ</t>
+  </si>
+  <si>
+    <t>Star Wars Battlefront 2</t>
+  </si>
+  <si>
+    <t>Экшен / Шутер</t>
+  </si>
+  <si>
+    <t>Шутер / Королевская битва</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>999 руб (Стандартное издание)</t>
+  </si>
+  <si>
+    <t>64-разрядная Windows 7 SP1, Windows 8.1 или Windows 10</t>
+  </si>
+  <si>
+    <t>Intel Core i5 6600K / AMD FX-6350</t>
+  </si>
+  <si>
+    <t>8 ГБ</t>
+  </si>
+  <si>
+    <t>nVidia GeForce GT 640 / Radeon HD 7730</t>
+  </si>
+  <si>
+    <t>nVidia GeForce GTX 660 / AMD Radeon HD 7850</t>
+  </si>
+  <si>
+    <t>2 ГБ</t>
+  </si>
+  <si>
+    <t>не менее 55 ГБ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Прочие</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>требования</t>
+    </r>
+  </si>
+  <si>
+    <t>Требования к соединению с интернетом: скорость 512 кбит/с</t>
+  </si>
+  <si>
+    <t>не менее 22 ГБ</t>
+  </si>
+  <si>
+    <t>DirectX</t>
+  </si>
+  <si>
+    <t>Память видеокарты</t>
+  </si>
+  <si>
+    <t>Видеокарта</t>
+  </si>
+  <si>
+    <t>ОЗУ</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>Процессор</t>
+  </si>
+  <si>
+    <t>Жесткий диск</t>
+  </si>
+  <si>
+    <t>Microsoft Store</t>
+  </si>
+  <si>
+    <t>Minecraft Windows 10 edition</t>
+  </si>
+  <si>
+    <t>Экшн / Приключения</t>
+  </si>
+  <si>
+    <t>29.99 $</t>
+  </si>
+  <si>
+    <t>Windows Xp 32</t>
+  </si>
+  <si>
+    <t>Intel Pentium 4 1,6 Ггц / AMD Athlon XP 1600+</t>
+  </si>
+  <si>
+    <t>500 МБ</t>
+  </si>
+  <si>
+    <t>nVidia GeForce 4 MX 440 / AMD Radeon HD 3200</t>
+  </si>
+  <si>
+    <t>11.0 или аналогичная</t>
+  </si>
+  <si>
+    <t>8 или аналогичная</t>
+  </si>
+  <si>
+    <t>не менее 1 ГБ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,9 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -414,18 +540,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -442,30 +578,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -474,12 +616,95 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
